--- a/src/main/webapp/file/mould.xlsx
+++ b/src/main/webapp/file/mould.xlsx
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高级会员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>会员卡售价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,26 +139,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>至尊会员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石会员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大会员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>易兴旺10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,31 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00088800022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00088800023</t>
-  </si>
-  <si>
-    <t>00088800024</t>
-  </si>
-  <si>
-    <t>00088800025</t>
-  </si>
-  <si>
-    <t>00088800026</t>
-  </si>
-  <si>
-    <t>00088800027</t>
-  </si>
-  <si>
-    <t>00088800028</t>
-  </si>
-  <si>
-    <t>00088800029</t>
-  </si>
-  <si>
     <t>11117423888</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,6 +245,51 @@
   <si>
     <t>13017645465495</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储值卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00088800030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00088800031</t>
+  </si>
+  <si>
+    <t>00088800032</t>
+  </si>
+  <si>
+    <t>00088800033</t>
+  </si>
+  <si>
+    <t>00088800034</t>
+  </si>
+  <si>
+    <t>00088800035</t>
+  </si>
+  <si>
+    <t>00088800036</t>
+  </si>
+  <si>
+    <t>00088800037</t>
   </si>
 </sst>
 </file>
@@ -654,7 +654,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J2" sqref="J2:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -705,7 +705,7 @@
         <v>12</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>14</v>
@@ -716,19 +716,19 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -740,39 +740,39 @@
         <v>11</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" t="s">
         <v>33</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -781,39 +781,39 @@
         <v>11</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" t="s">
         <v>33</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
         <v>56</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -822,39 +822,39 @@
         <v>11</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" t="s">
         <v>33</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -863,39 +863,39 @@
         <v>11</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="M5" t="s">
         <v>33</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -904,36 +904,36 @@
         <v>11</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" t="s">
         <v>33</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -945,36 +945,36 @@
         <v>11</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" t="s">
         <v>33</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -986,39 +986,39 @@
         <v>11</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" t="s">
         <v>33</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -1027,19 +1027,19 @@
         <v>11</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" t="s">
         <v>33</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
